--- a/Test_recalc.xlsx
+++ b/Test_recalc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="960" windowWidth="27700" windowHeight="16820" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1100" yWindow="960" windowWidth="27700" windowHeight="16820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="10-2" sheetId="1" r:id="rId1"/>
@@ -349,8 +349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5308,8 +5308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:BP3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5727,74 +5727,278 @@
       </c>
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="2"/>
-      <c r="AT3" s="2"/>
-      <c r="AU3" s="2"/>
-      <c r="AV3" s="2"/>
-      <c r="AW3" s="2"/>
-      <c r="AX3" s="2"/>
-      <c r="AY3" s="2"/>
-      <c r="AZ3" s="2"/>
-      <c r="BA3" s="2"/>
-      <c r="BB3" s="2"/>
-      <c r="BC3" s="2"/>
-      <c r="BD3" s="2"/>
-      <c r="BE3" s="2"/>
-      <c r="BF3" s="2"/>
-      <c r="BG3" s="2"/>
-      <c r="BH3" s="2"/>
-      <c r="BI3" s="2"/>
-      <c r="BJ3" s="2"/>
-      <c r="BK3" s="2"/>
-      <c r="BL3" s="2"/>
-      <c r="BM3" s="2"/>
-      <c r="BN3" s="2"/>
-      <c r="BO3" s="2"/>
-      <c r="BP3" s="2"/>
+      <c r="A3" s="2">
+        <f>SQRT(A1^2+A2^2)</f>
+        <v>9.0553851381374173</v>
+      </c>
+      <c r="B3" s="2">
+        <f t="shared" ref="B3:BM3" si="0">SQRT(B1^2+B2^2)</f>
+        <v>9.0553851381374173</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" si="0"/>
+        <v>8.6023252670426267</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" si="0"/>
+        <v>7.6157731058639087</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" si="0"/>
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" si="0"/>
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" si="0"/>
+        <v>7.6157731058639087</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" si="0"/>
+        <v>8.6023252670426267</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" si="0"/>
+        <v>8.6023252670426267</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" si="0"/>
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" si="0"/>
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="M3" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" si="0"/>
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="O3" s="2">
+        <f t="shared" si="0"/>
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="P3" s="2">
+        <f t="shared" si="0"/>
+        <v>8.6023252670426267</v>
+      </c>
+      <c r="Q3" s="2">
+        <f t="shared" si="0"/>
+        <v>7.6157731058639087</v>
+      </c>
+      <c r="R3" s="2">
+        <f t="shared" si="0"/>
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="S3" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="T3" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="U3" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="V3" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="W3" s="2">
+        <f t="shared" si="0"/>
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="X3" s="2">
+        <f t="shared" si="0"/>
+        <v>7.6157731058639087</v>
+      </c>
+      <c r="Y3" s="2">
+        <f t="shared" si="0"/>
+        <v>9.0553851381374173</v>
+      </c>
+      <c r="Z3" s="2">
+        <f t="shared" si="0"/>
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="AA3" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="AB3" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="AC3" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="AD3" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="AE3" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="AF3" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="AG3" s="2">
+        <f t="shared" si="0"/>
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="AH3" s="2">
+        <f t="shared" si="0"/>
+        <v>9.0553851381374173</v>
+      </c>
+      <c r="AI3" s="2">
+        <f t="shared" si="0"/>
+        <v>9.0553851381374173</v>
+      </c>
+      <c r="AJ3" s="2">
+        <f t="shared" si="0"/>
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="AK3" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="AL3" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="AM3" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="AN3" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="AO3" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="AP3" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="AQ3" s="2">
+        <f t="shared" si="0"/>
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="AR3" s="2">
+        <f t="shared" si="0"/>
+        <v>9.0553851381374173</v>
+      </c>
+      <c r="AS3" s="2">
+        <f t="shared" si="0"/>
+        <v>7.6157731058639087</v>
+      </c>
+      <c r="AT3" s="2">
+        <f t="shared" si="0"/>
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="AU3" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="AV3" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="AW3" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="AX3" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2426406871192848</v>
+      </c>
+      <c r="AY3" s="2">
+        <f t="shared" si="0"/>
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="AZ3" s="2">
+        <f t="shared" si="0"/>
+        <v>7.6157731058639087</v>
+      </c>
+      <c r="BA3" s="2">
+        <f t="shared" si="0"/>
+        <v>8.6023252670426267</v>
+      </c>
+      <c r="BB3" s="2">
+        <f t="shared" si="0"/>
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="BC3" s="2">
+        <f t="shared" si="0"/>
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="BD3" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="BE3" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0990195135927845</v>
+      </c>
+      <c r="BF3" s="2">
+        <f t="shared" si="0"/>
+        <v>5.8309518948453007</v>
+      </c>
+      <c r="BG3" s="2">
+        <f t="shared" si="0"/>
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="BH3" s="2">
+        <f t="shared" si="0"/>
+        <v>8.6023252670426267</v>
+      </c>
+      <c r="BI3" s="2">
+        <f t="shared" si="0"/>
+        <v>8.6023252670426267</v>
+      </c>
+      <c r="BJ3" s="2">
+        <f t="shared" si="0"/>
+        <v>7.6157731058639087</v>
+      </c>
+      <c r="BK3" s="2">
+        <f t="shared" si="0"/>
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="BL3" s="2">
+        <f t="shared" si="0"/>
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="BM3" s="2">
+        <f t="shared" si="0"/>
+        <v>7.6157731058639087</v>
+      </c>
+      <c r="BN3" s="2">
+        <f t="shared" ref="BN3:BP3" si="1">SQRT(BN1^2+BN2^2)</f>
+        <v>8.6023252670426267</v>
+      </c>
+      <c r="BO3" s="2">
+        <f t="shared" si="1"/>
+        <v>9.0553851381374173</v>
+      </c>
+      <c r="BP3" s="2">
+        <f t="shared" si="1"/>
+        <v>9.0553851381374173</v>
+      </c>
     </row>
     <row r="4" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
